--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.4746201780132</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H2">
-        <v>60.4746201780132</v>
+        <v>238.837389</v>
       </c>
       <c r="I2">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J2">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>5348.650632615532</v>
+        <v>7877.392403421213</v>
       </c>
       <c r="R2">
-        <v>5348.650632615532</v>
+        <v>70896.53163079091</v>
       </c>
       <c r="S2">
-        <v>0.1231550044995023</v>
+        <v>0.1411632604151301</v>
       </c>
       <c r="T2">
-        <v>0.1231550044995023</v>
+        <v>0.1411632604151302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.4746201780132</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H3">
-        <v>60.4746201780132</v>
+        <v>238.837389</v>
       </c>
       <c r="I3">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J3">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>9847.533772259334</v>
+        <v>12977.32790578178</v>
       </c>
       <c r="R3">
-        <v>9847.533772259334</v>
+        <v>116795.951152036</v>
       </c>
       <c r="S3">
-        <v>0.2267437432978388</v>
+        <v>0.2325543561675042</v>
       </c>
       <c r="T3">
-        <v>0.2267437432978388</v>
+        <v>0.2325543561675043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.4746201780132</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H4">
-        <v>60.4746201780132</v>
+        <v>238.837389</v>
       </c>
       <c r="I4">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J4">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>3738.573465572882</v>
+        <v>5206.345122344055</v>
       </c>
       <c r="R4">
-        <v>3738.573465572882</v>
+        <v>46857.10610109649</v>
       </c>
       <c r="S4">
-        <v>0.08608227824168004</v>
+        <v>0.09329796139104408</v>
       </c>
       <c r="T4">
-        <v>0.08608227824168004</v>
+        <v>0.09329796139104411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.4746201780132</v>
+        <v>79.61246300000001</v>
       </c>
       <c r="H5">
-        <v>60.4746201780132</v>
+        <v>238.837389</v>
       </c>
       <c r="I5">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494041</v>
       </c>
       <c r="J5">
-        <v>0.6313556224039354</v>
+        <v>0.6728436998494042</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>8485.16438849569</v>
+        <v>11485.91268653152</v>
       </c>
       <c r="R5">
-        <v>8485.16438849569</v>
+        <v>103373.2141787837</v>
       </c>
       <c r="S5">
-        <v>0.1953745963649143</v>
+        <v>0.2058281218757256</v>
       </c>
       <c r="T5">
-        <v>0.1953745963649143</v>
+        <v>0.2058281218757257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.53798082127388</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H6">
-        <v>3.53798082127388</v>
+        <v>11.445176</v>
       </c>
       <c r="I6">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J6">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>312.9151254226176</v>
+        <v>377.4875569344747</v>
       </c>
       <c r="R6">
-        <v>312.9151254226176</v>
+        <v>3397.388012410272</v>
       </c>
       <c r="S6">
-        <v>0.007205006706624222</v>
+        <v>0.006764595639525255</v>
       </c>
       <c r="T6">
-        <v>0.007205006706624222</v>
+        <v>0.006764595639525257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.53798082127388</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H7">
-        <v>3.53798082127388</v>
+        <v>11.445176</v>
       </c>
       <c r="I7">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J7">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>576.1158238041698</v>
+        <v>621.8783521008259</v>
       </c>
       <c r="R7">
-        <v>576.1158238041698</v>
+        <v>5596.905168907432</v>
       </c>
       <c r="S7">
-        <v>0.01326531713254585</v>
+        <v>0.01114409074327877</v>
       </c>
       <c r="T7">
-        <v>0.01326531713254585</v>
+        <v>0.01114409074327877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.53798082127388</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H8">
-        <v>3.53798082127388</v>
+        <v>11.445176</v>
       </c>
       <c r="I8">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J8">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>218.7198725876286</v>
+        <v>249.4899835049245</v>
       </c>
       <c r="R8">
-        <v>218.7198725876286</v>
+        <v>2245.40985154432</v>
       </c>
       <c r="S8">
-        <v>0.005036120087635606</v>
+        <v>0.004470872810293971</v>
       </c>
       <c r="T8">
-        <v>0.005036120087635606</v>
+        <v>0.004470872810293972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.53798082127388</v>
+        <v>3.815058666666667</v>
       </c>
       <c r="H9">
-        <v>3.53798082127388</v>
+        <v>11.445176</v>
       </c>
       <c r="I9">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608301</v>
       </c>
       <c r="J9">
-        <v>0.03693655415930457</v>
+        <v>0.03224291890608302</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>496.4123591596923</v>
+        <v>550.4091832874044</v>
       </c>
       <c r="R9">
-        <v>496.4123591596923</v>
+        <v>4953.68264958664</v>
       </c>
       <c r="S9">
-        <v>0.01143011023249889</v>
+        <v>0.00986335971298501</v>
       </c>
       <c r="T9">
-        <v>0.01143011023249889</v>
+        <v>0.009863359712985013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.4149752606439</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H10">
-        <v>27.4149752606439</v>
+        <v>91.359419</v>
       </c>
       <c r="I10">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J10">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>2424.705179451357</v>
+        <v>3013.238405531119</v>
       </c>
       <c r="R10">
-        <v>2424.705179451357</v>
+        <v>27119.14564978007</v>
       </c>
       <c r="S10">
-        <v>0.05582989015292509</v>
+        <v>0.05399738085259333</v>
       </c>
       <c r="T10">
-        <v>0.05582989015292509</v>
+        <v>0.05399738085259335</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.4149752606439</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H11">
-        <v>27.4149752606439</v>
+        <v>91.359419</v>
       </c>
       <c r="I11">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J11">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>4464.185040768525</v>
+        <v>4964.051661294582</v>
       </c>
       <c r="R11">
-        <v>4464.185040768525</v>
+        <v>44676.46495165124</v>
       </c>
       <c r="S11">
-        <v>0.102789799997389</v>
+        <v>0.08895605061811428</v>
       </c>
       <c r="T11">
-        <v>0.102789799997389</v>
+        <v>0.0889560506181143</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.4149752606439</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H12">
-        <v>27.4149752606439</v>
+        <v>91.359419</v>
       </c>
       <c r="I12">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J12">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>1694.808479442814</v>
+        <v>1991.516769976232</v>
       </c>
       <c r="R12">
-        <v>1694.808479442814</v>
+        <v>17923.65092978608</v>
       </c>
       <c r="S12">
-        <v>0.03902370153675689</v>
+        <v>0.03568807874788071</v>
       </c>
       <c r="T12">
-        <v>0.03902370153675689</v>
+        <v>0.03568807874788073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.4149752606439</v>
+        <v>30.45313966666667</v>
       </c>
       <c r="H13">
-        <v>27.4149752606439</v>
+        <v>91.359419</v>
       </c>
       <c r="I13">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="J13">
-        <v>0.2862126081639322</v>
+        <v>0.2573743154429307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>3846.581774442959</v>
+        <v>4393.559626990601</v>
       </c>
       <c r="R13">
-        <v>3846.581774442959</v>
+        <v>39542.03664291542</v>
       </c>
       <c r="S13">
-        <v>0.08856921647686129</v>
+        <v>0.07873280522434231</v>
       </c>
       <c r="T13">
-        <v>0.08856921647686129</v>
+        <v>0.07873280522434235</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.35777518392155</v>
+        <v>4.441711333333334</v>
       </c>
       <c r="H14">
-        <v>4.35777518392155</v>
+        <v>13.325134</v>
       </c>
       <c r="I14">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158222</v>
       </c>
       <c r="J14">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158223</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>385.421469794571</v>
+        <v>439.4927853870054</v>
       </c>
       <c r="R14">
-        <v>385.421469794571</v>
+        <v>3955.435068483048</v>
       </c>
       <c r="S14">
-        <v>0.008874496785658189</v>
+        <v>0.007875732391750876</v>
       </c>
       <c r="T14">
-        <v>0.008874496785658189</v>
+        <v>0.007875732391750878</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.35777518392155</v>
+        <v>4.441711333333334</v>
       </c>
       <c r="H15">
-        <v>4.35777518392155</v>
+        <v>13.325134</v>
       </c>
       <c r="I15">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158222</v>
       </c>
       <c r="J15">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158223</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>709.6090586308986</v>
+        <v>724.0266443646377</v>
       </c>
       <c r="R15">
-        <v>709.6090586308986</v>
+        <v>6516.239799281739</v>
       </c>
       <c r="S15">
-        <v>0.01633905685962528</v>
+        <v>0.01297459317902575</v>
       </c>
       <c r="T15">
-        <v>0.01633905685962528</v>
+        <v>0.01297459317902576</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.35777518392155</v>
+        <v>4.441711333333334</v>
       </c>
       <c r="H16">
-        <v>4.35777518392155</v>
+        <v>13.325134</v>
       </c>
       <c r="I16">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158222</v>
       </c>
       <c r="J16">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158223</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>269.3999999269832</v>
+        <v>290.470628137209</v>
       </c>
       <c r="R16">
-        <v>269.3999999269832</v>
+        <v>2614.235653234881</v>
       </c>
       <c r="S16">
-        <v>0.006203052037247991</v>
+        <v>0.005205247983440687</v>
       </c>
       <c r="T16">
-        <v>0.006203052037247991</v>
+        <v>0.005205247983440689</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.35777518392155</v>
+        <v>4.441711333333334</v>
       </c>
       <c r="H17">
-        <v>4.35777518392155</v>
+        <v>13.325134</v>
       </c>
       <c r="I17">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158222</v>
       </c>
       <c r="J17">
-        <v>0.04549521527282793</v>
+        <v>0.03753906580158223</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>611.4373053495415</v>
+        <v>640.818116046029</v>
       </c>
       <c r="R17">
-        <v>611.4373053495415</v>
+        <v>5767.363044414261</v>
       </c>
       <c r="S17">
-        <v>0.01407860959029647</v>
+        <v>0.0114834922473649</v>
       </c>
       <c r="T17">
-        <v>0.01407860959029647</v>
+        <v>0.0114834922473649</v>
       </c>
     </row>
   </sheetData>
